--- a/biology/Botanique/Equisetopsida/Equisetopsida.xlsx
+++ b/biology/Botanique/Equisetopsida/Equisetopsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Equisetopsida sont une classe de plantes. 
-Elle désigne dans un premier temps la classe contenant les prêles, au sein des Ptéridophytes (Pteridophytina)[1]. Elle peut être synonyme de la sous-classe des Equisetidae selon NCBI  (23 avril 2019)[2], ou de la classe des Equisetophyceae selon Paleobiology Database                   (23 avril 2019)[3].
-Dans la classification APG III selon Chase et Reveal (2009)[4], suivie par Tropicos                                           (23 avril 2019)[5], c’est la classe de l'ensemble des plantes terrestres (les Embryophytes).
+Elle désigne dans un premier temps la classe contenant les prêles, au sein des Ptéridophytes (Pteridophytina). Elle peut être synonyme de la sous-classe des Equisetidae selon NCBI  (23 avril 2019), ou de la classe des Equisetophyceae selon Paleobiology Database                   (23 avril 2019).
+Dans la classification APG III selon Chase et Reveal (2009), suivie par Tropicos                                           (23 avril 2019), c’est la classe de l'ensemble des plantes terrestres (les Embryophytes).
 </t>
         </is>
       </c>
@@ -513,20 +525,22 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (23 avril 2019)[6], la classe des Equisetopsida est placée dans la division des Monilophyta et contient : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (23 avril 2019), la classe des Equisetopsida est placée dans la division des Monilophyta et contient : 
 ordre des Equisetales DC. ex Bercht. &amp; J.Presl
 ordre des Pseudoborniales Nathorst. †
 ordre des Sphenophyllales Seward †
-Selon Paleobiology Database                   (23 avril 2019)[3], la classe des Equisetopsida est placée, avec les classes des Asterocalamitopsida et des Calamitopsida, dans la division des Equisetophyta et elle contient : 
+Selon Paleobiology Database                   (23 avril 2019), la classe des Equisetopsida est placée, avec les classes des Asterocalamitopsida et des Calamitopsida, dans la division des Equisetophyta et elle contient : 
 ordre des Echinostachyales
 ordre des Equisetales
 ordre des Gondwanostachyales
 ordre des Sphenophyllales
-Selon NCBI  (23 avril 2019)[2], la classe des Equisetopsida est un synonyme de la sous-classe des Equisetidae dans la classe des Polypodiopsida et elle contient : 
+Selon NCBI  (23 avril 2019), la classe des Equisetopsida est un synonyme de la sous-classe des Equisetidae dans la classe des Polypodiopsida et elle contient : 
 ordre des Equisetales DC. ex Bercht. &amp; J.Presl, 1829
-Selon la classification APG III selon Chase et Reveal (2009)[4] : 
+Selon la classification APG III selon Chase et Reveal (2009) : 
 sous-classe des Anthocerotidae Engl., in H.G.A. Engler &amp; K.A.E. Prantl, Nat. Pflanzenfam. I, 3: 1, 6. 10 Oct 1893.
 sous-classe des Bryidae Engl., Syllabus: 47. Apr 1892.
 sous-classe des Marchantiidae Engl., in H.G.A. Engler &amp; K.A.E. Prantl, Nat. Pflanzenfam. I, 3: 1, 5. 10 Oct 1893.
